--- a/PESO/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2020\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ABABF3-2390-47E8-BA8D-869507C603EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FECAD-5FE2-48F0-839E-4DB8F0C905FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impoluging" sheetId="3" r:id="rId1"/>
@@ -328,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -378,12 +378,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,6 +501,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,20 +514,348 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -441,6 +866,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{503A7833-2CD6-4439-AE04-D409806B353D}" name="imp_salida_2020" displayName="imp_salida_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:J56" xr:uid="{AE494AD2-25D1-4E21-8777-120BEBAB1ABC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{6E38BE76-DE4E-431B-BDA0-58BA64C7E7D5}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4F6834CA-AEAC-4DC2-AE9C-82D47BC07080}" name="Enero - 2020" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{39CE5C8F-58DD-4494-96DE-CC9C6C6D679F}" name="Febrero - 2020" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BDFDA437-DFC2-440F-B28D-CF0C5593E2CD}" name="Marzo - 2020" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6CD77FE2-1DFF-4B2B-9A39-9B2FCEFF06C5}" name="Abril - 2020" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{BE0B549C-BE18-4C51-AD0E-121DBCE84709}" name="Mayo - 2020" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C7B72C50-CC04-4D39-A349-30D3F58D1D72}" name="Junio - 2020" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{70D4D9EE-56BD-4D5A-8064-06822DD02C72}" name="Julio - 2020" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{FEBDB816-82BF-4FDB-949B-E7409F49C36B}" name="Agosto - 2020" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{6CAE6B5B-748D-4B60-BEC1-919759811671}" name="Septiembre - 2020" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,36 +1170,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="12" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -790,7 +1234,7 @@
       <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -2773,1810 +3217,1813 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="16.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
         <v>1612</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>76183454.679999933</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="11">
         <v>56350936.86999999</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="11">
         <v>40616888.360000007</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>43948257.860000029</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="11">
         <v>16675178.970000003</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="11">
         <v>17363395.820000008</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="11">
         <v>9352569.8500000034</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="11">
         <v>15513062.669999994</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>19231330.110000007</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>61</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <v>161.94999999999999</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>195</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
         <v>1478</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>143080.45000000001</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <v>181756.61</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="11">
         <v>181421.29999999996</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>221150.35</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="11">
         <v>168892.54999999996</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="11">
         <v>165454.41</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="11">
         <v>167338.12</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="11">
         <v>142686.62</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>150373.54999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>375.5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>131</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>169.91</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>121.5</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="11">
         <v>148.80000000000001</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>10</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="11">
         <v>100.5</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>8312.98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>2257</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>78.5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>69.5</v>
       </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>16514.900000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>5.2</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>91298004.679999962</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>46406444.099999994</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="11">
         <v>72134487.200000018</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="11">
         <v>58230299.219999991</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="11">
         <v>60949655.409999989</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="11">
         <v>53726053.200000003</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="11">
         <v>21432502.23</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="11">
         <v>65359472.649999984</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>13004161.91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>12240546.91</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>3641893.0600000005</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="11">
         <v>4711877.01</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>29020160.43</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="11">
         <v>4465096.24</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="11">
         <v>4505257.4000000004</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="11">
         <v>8281100.2700000005</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="11">
         <v>23498514.359999996</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>10617707.01</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>18626123</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <v>16281003.5</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="11">
         <v>23706746.5</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="11">
         <v>17566449</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="11">
         <v>18562952</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="11">
         <v>18959599</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="11">
         <v>17087562</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="11">
         <v>20325000</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>21000000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>17409316</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="11">
         <v>62451430</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="11">
         <v>20469278</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>63654077</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <v>16502167</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="11">
         <v>20465447</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>71188201.659999996</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>9056281.3399999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>46329837.960000001</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="11">
         <v>13417625.99</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="11">
         <v>26093020.880000003</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="11">
         <v>21884684.170000002</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="11">
         <v>22987930.089999996</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="11">
         <v>30002058.850000001</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="11">
         <v>40779088.25</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="11">
         <v>15728426.810000001</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>39328838.759999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>3661017.6</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="11">
         <v>5459015.1200000001</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="11">
         <v>3611534.82</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="11">
         <v>5366467.2200000007</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="11">
         <v>5487189.1400000006</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="11">
         <v>5052465.3600000003</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="11">
         <v>6106759.3600000003</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>6188966.7599999998</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>6074699.5200000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>1600</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="11">
         <v>2400</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>910</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="11">
         <v>13100</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="11">
         <v>2662.8</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <v>61430</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>44492603.599999994</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="11">
         <v>16243984.300000001</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="11">
         <v>33494937</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="11">
         <v>20778939</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="11">
         <v>2703874</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="11">
         <v>18957531</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="11">
         <v>4763216</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="11">
         <v>17262154.600000001</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>18431082.399999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>10637870.75</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="11">
         <v>8123150.1799999997</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="11">
         <v>7170685.6799999997</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>9411201.9199999999</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="11">
         <v>9068775.5</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="11">
         <v>9814480.6499999985</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="11">
         <v>5777565.4500000002</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="11">
         <v>7564863.0199999996</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>6358842.7000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
         <v>19000</v>
       </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
         <v>20395</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>27204683.48</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="11">
         <v>10307987.42</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="11">
         <v>9523867.4299999997</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="11">
         <v>16725664.229999999</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="11">
         <v>14288119.309999999</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="11">
         <v>13896626.09</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="11">
         <v>20148103.449999999</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>24660039.949999999</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <v>30545473.239999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>242315</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="11">
         <v>17777794</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="11">
         <v>5263770</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="11">
         <v>1254686</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="11">
         <v>190326</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="11">
         <v>25044543</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="11">
         <v>20200970</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="11">
         <v>7981550</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>1618645</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>315609684.57999998</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="11">
         <v>212483846.01999998</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="11">
         <v>223248417.96999997</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="11">
         <v>105072418.19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="11">
         <v>237028548.88</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="11">
         <v>343958810.69000006</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="11">
         <v>362816075.88999999</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="11">
         <v>173430243.58999997</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>127878628.48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="18">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
         <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>173729980.75999999</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="11">
         <v>161367757.49999994</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="11">
         <v>189713737.11999995</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="11">
         <v>188326141.04000002</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="11">
         <v>180532957.28999999</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="11">
         <v>163918821.36999997</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="11">
         <v>185364268.05999997</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="11">
         <v>231950954.97000003</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="17">
         <v>226843168.48000002</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="18">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
         <v>300000</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="18">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
         <v>2</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="11">
         <v>14002208</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="11">
         <v>12328960</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="11">
         <v>15393681</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="11">
         <v>2983658</v>
       </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>6505595</v>
       </c>
-      <c r="C27" s="18">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
         <v>2640480</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="11">
         <v>2846887</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="11">
         <v>3010837.65</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="11">
         <v>6435214.3499999996</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="11">
         <v>2738749</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="11">
         <v>2754835</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="17">
         <v>4083700</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>148805874</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="11">
         <v>239529756</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="11">
         <v>69647596</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="11">
         <v>116196495</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="11">
         <v>186470384.90000001</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="11">
         <v>64748020.899999999</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="11">
         <v>323267282.62</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="11">
         <v>143156902</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="17">
         <v>153371558</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>1108000</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="11">
         <v>310920</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="11">
         <v>352580</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="11">
         <v>241460</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="11">
         <v>298540</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="11">
         <v>473760</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="11">
         <v>138000</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="11">
         <v>326940</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <v>203627.07</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="18">
-        <v>0</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
         <v>2000</v>
       </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>17801616.850000001</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="11">
         <v>16789580.48</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="11">
         <v>19678657.690000001</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="11">
         <v>32049496.380000003</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="11">
         <v>19726647.84</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="11">
         <v>16802863.740000002</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="11">
         <v>17627148.52</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="11">
         <v>18401013.050000001</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <v>16218196.469999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>2522</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="11">
         <v>1355</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="11">
         <v>1305</v>
       </c>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>2096975.02</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="11">
         <v>1415525.1800000002</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="11">
         <v>3359294.06</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="11">
         <v>2719710.27</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="11">
         <v>2110732.44</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="11">
         <v>2653788.7999999998</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="11">
         <v>5241026.1899999995</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="11">
         <v>2804765.25</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="17">
         <v>2242767.8600000003</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>79333977.320000008</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="11">
         <v>50201145.399999991</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="11">
         <v>11922013.42</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="11">
         <v>73210164.75999999</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="11">
         <v>33774411.390000008</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="11">
         <v>58617282.509999998</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="11">
         <v>72167787.230000004</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="11">
         <v>69813273.450000003</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <v>41870241.139999993</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="18">
-        <v>0</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0</v>
-      </c>
-      <c r="I35" s="18">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
         <v>4140</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="11">
         <v>1192552289.5799999</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="11">
         <v>838721069.25</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="11">
         <v>774267809.13</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="11">
         <v>1261268201.0699999</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="11">
         <v>666077819.17000008</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="11">
         <v>1030368350.58</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="11">
         <v>960790890.04000008</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="11">
         <v>668908533.17000008</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="17">
         <v>678895604.84000003</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="11">
         <v>290194.31</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="11">
         <v>135361.43</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="11">
         <v>84279.44</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="11">
         <v>51030.99</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="11">
         <v>200817</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="11">
         <v>34039</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="11">
         <v>98</v>
       </c>
-      <c r="I37" s="18">
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="18">
-        <v>0</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0</v>
-      </c>
-      <c r="D38" s="18">
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
         <v>57880</v>
       </c>
-      <c r="E38" s="18">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="11">
         <v>464442</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="11">
         <v>1140963</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="11">
         <v>311783</v>
       </c>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
         <v>419035</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="11">
         <v>259723</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="11">
         <v>519540</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="11">
         <v>1269888</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="17">
         <v>1079165</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="11">
         <v>161000</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="11">
         <v>253000</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="11">
         <v>310915.3</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="11">
         <v>370000</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="11">
         <v>312000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="11">
         <v>203490</v>
       </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="11">
         <v>10203390</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="11">
         <v>18856000</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="11">
         <v>11280100</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="11">
         <v>27868160</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="11">
         <v>28137037</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="11">
         <v>28797783</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="11">
         <v>48207805</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="11">
         <v>52408288.329999998</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="17">
         <v>71723350</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="11">
         <v>26516603.669999998</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="11">
         <v>25699624.700000003</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="11">
         <v>25206906.07</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="11">
         <v>19712417.870000001</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="11">
         <v>20770990.32</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="11">
         <v>22317764.540000003</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="11">
         <v>13086660.649999999</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="11">
         <v>16576298.83</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="17">
         <v>18779839.640000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="11">
         <v>41195658.290000007</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="11">
         <v>27788032.490000002</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="11">
         <v>29089686.91</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="11">
         <v>38351918.009999998</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="11">
         <v>41225732.930000015</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="11">
         <v>46678150.07</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="11">
         <v>70001723.670000002</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="11">
         <v>61850223.089999996</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="17">
         <v>92357226.460000023</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="11">
         <v>61123334.600000001</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="11">
         <v>99709622</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="11">
         <v>49545850</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="11">
         <v>43834663</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="11">
         <v>45250540</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="11">
         <v>56115650</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="11">
         <v>68746358</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="11">
         <v>143457897</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="17">
         <v>83865874</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="11">
         <v>29290764.5</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="11">
         <v>45398712.969999999</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="11">
         <v>17791528.699999999</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="11">
         <v>22520219.800000001</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="11">
         <v>14933417.780000001</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="11">
         <v>407249.23000000004</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="11">
         <v>9256817.7000000011</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="11">
         <v>4788478.5999999996</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="17">
         <v>24617233.09</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="11">
         <v>636332663.12</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="11">
         <v>404770166.68000001</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="11">
         <v>753903416.35000002</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="11">
         <v>543380971.33000004</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="11">
         <v>406241391.35000002</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="11">
         <v>758284640.61000001</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="11">
         <v>943061008.26999998</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="11">
         <v>437974432.14999998</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="17">
         <v>525667675.04000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="11">
         <v>936762361.00999963</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="11">
         <v>903959045.37999976</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="11">
         <v>981299662.85000014</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="11">
         <v>946633313.84999979</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="11">
         <v>835106473.05000007</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="11">
         <v>811013967.58999979</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="11">
         <v>1022122491.1999999</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="11">
         <v>939857277.85000014</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="17">
         <v>941480102.13999987</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="11">
         <v>36050</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0</v>
-      </c>
-      <c r="E48" s="18">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-      <c r="H48" s="18">
-        <v>0</v>
-      </c>
-      <c r="I48" s="18">
-        <v>0</v>
-      </c>
-      <c r="J48" s="18">
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
         <v>279.23</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="18">
-        <v>0</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
-      <c r="F49" s="18">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
         <v>16142.6</v>
       </c>
-      <c r="I49" s="18">
-        <v>0</v>
-      </c>
-      <c r="J49" s="18">
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="11">
         <v>28740</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="11">
         <v>28360</v>
       </c>
-      <c r="D50" s="18">
-        <v>0</v>
-      </c>
-      <c r="E50" s="18">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0</v>
-      </c>
-      <c r="I50" s="18">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18">
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="11">
         <v>455906711.51999998</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="11">
         <v>413395962.96000004</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="11">
         <v>465955324.01999998</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="11">
         <v>348323834.46000004</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="11">
         <v>303514950.06999999</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="11">
         <v>214025959.73999995</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="11">
         <v>482401569.5200001</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="11">
         <v>273048316.29000002</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="17">
         <v>217823937.14000002</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="11">
         <v>599111009.60000002</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="11">
         <v>477548995</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="11">
         <v>396801566</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="11">
         <v>440002135.87</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="11">
         <v>91692069</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="11">
         <v>89625472.900000006</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="11">
         <v>76478580.239999995</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="11">
         <v>318937483.06</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="17">
         <v>718772046</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="11">
         <v>92027009</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="11">
         <v>130190635</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="11">
         <v>6075456</v>
       </c>
-      <c r="E53" s="18">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
         <v>131896800</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="11">
         <v>54593775</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="11">
         <v>149448181</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="11">
         <v>7316844</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>69263700</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="11">
         <v>348347746.54999995</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="11">
         <v>234179852.63999993</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="11">
         <v>290446914.26999992</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="11">
         <v>224880391.95000005</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="11">
         <v>217578826</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="11">
         <v>304879521.92999989</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="11">
         <v>265305367.65999997</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="11">
         <v>350666544.43999994</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="17">
         <v>292013139.45000017</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="11">
         <v>301709582.38999999</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="11">
         <v>101773552.71000001</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="11">
         <v>229315603.90000001</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="11">
         <v>163736115.53999999</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="11">
         <v>286482065.55000001</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="11">
         <v>200556255.19999999</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="11">
         <v>254110033.81</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="11">
         <v>155208040</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="17">
         <v>160126906.31999999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="22">
         <v>220645031.19000003</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="22">
         <v>174020302.73000002</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="22">
         <v>229372284.69000003</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="22">
         <v>454474972.92000002</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="22">
         <v>129723921.91</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="22">
         <v>78914327.000000015</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="22">
         <v>98572652.25000006</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="22">
         <v>96885489.089999989</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="23">
         <v>124831033.86999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/PESO/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FECAD-5FE2-48F0-839E-4DB8F0C905FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A78CA-4983-4C1B-93F1-C0816769740E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impoluging" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)</t>
   </si>
@@ -251,6 +251,27 @@
   <si>
     <t>Total general</t>
   </si>
+  <si>
+    <t>AEROP. EL TEPUAL</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>LEBU</t>
+  </si>
+  <si>
+    <t>LOTA</t>
+  </si>
+  <si>
+    <t>Octubre - 2020</t>
+  </si>
+  <si>
+    <t>Noviembre - 2020</t>
+  </si>
+  <si>
+    <t>Diciembre - 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +315,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -479,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -502,6 +536,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,28 +557,95 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -548,7 +658,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -569,6 +679,36 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -825,36 +965,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -869,19 +979,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{503A7833-2CD6-4439-AE04-D409806B353D}" name="imp_salida_2020" displayName="imp_salida_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:J56" xr:uid="{AE494AD2-25D1-4E21-8777-120BEBAB1ABC}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6E38BE76-DE4E-431B-BDA0-58BA64C7E7D5}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4F6834CA-AEAC-4DC2-AE9C-82D47BC07080}" name="Enero - 2020" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{39CE5C8F-58DD-4494-96DE-CC9C6C6D679F}" name="Febrero - 2020" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BDFDA437-DFC2-440F-B28D-CF0C5593E2CD}" name="Marzo - 2020" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6CD77FE2-1DFF-4B2B-9A39-9B2FCEFF06C5}" name="Abril - 2020" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{BE0B549C-BE18-4C51-AD0E-121DBCE84709}" name="Mayo - 2020" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C7B72C50-CC04-4D39-A349-30D3F58D1D72}" name="Junio - 2020" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{70D4D9EE-56BD-4D5A-8064-06822DD02C72}" name="Julio - 2020" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{FEBDB816-82BF-4FDB-949B-E7409F49C36B}" name="Agosto - 2020" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{6CAE6B5B-748D-4B60-BEC1-919759811671}" name="Septiembre - 2020" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{503A7833-2CD6-4439-AE04-D409806B353D}" name="imp_salida_2020" displayName="imp_salida_2020" ref="A1:M60" totalsRowShown="0" headerRowDxfId="3" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:M60" xr:uid="{AE494AD2-25D1-4E21-8777-120BEBAB1ABC}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6E38BE76-DE4E-431B-BDA0-58BA64C7E7D5}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4F6834CA-AEAC-4DC2-AE9C-82D47BC07080}" name="Enero - 2020" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{39CE5C8F-58DD-4494-96DE-CC9C6C6D679F}" name="Febrero - 2020" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BDFDA437-DFC2-440F-B28D-CF0C5593E2CD}" name="Marzo - 2020" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6CD77FE2-1DFF-4B2B-9A39-9B2FCEFF06C5}" name="Abril - 2020" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{BE0B549C-BE18-4C51-AD0E-121DBCE84709}" name="Mayo - 2020" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C7B72C50-CC04-4D39-A349-30D3F58D1D72}" name="Junio - 2020" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{70D4D9EE-56BD-4D5A-8064-06822DD02C72}" name="Julio - 2020" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{FEBDB816-82BF-4FDB-949B-E7409F49C36B}" name="Agosto - 2020" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{6CAE6B5B-748D-4B60-BEC1-919759811671}" name="Septiembre - 2020" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{CC3217DA-E9C8-4987-A376-A10F7A99DA7C}" name="Octubre - 2020" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2C177158-08A1-415B-B7F5-F227B0BD0DA9}" name="Noviembre - 2020" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{AF743FC3-C338-47B3-9E38-FD5164E5C029}" name="Diciembre - 2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1159,51 +1272,51 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="16.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="16.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="13" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1234,9 +1347,9 @@
       <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
@@ -1271,7 +1384,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1306,7 +1419,7 @@
         <v>295235075.19</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1454,7 @@
         <v>1895.95</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1489,7 @@
         <v>1522153.9600000002</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1524,7 @@
         <v>9370.1899999999987</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1559,7 @@
         <v>18919.900000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1594,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1629,7 @@
         <v>482541080.59999996</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1664,7 @@
         <v>100982152.69</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1699,7 @@
         <v>172115435</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1734,7 @@
         <v>281196197.99999994</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1769,7 @@
         <v>256551511.75999999</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1691,7 +1804,7 @@
         <v>47008114.900000006</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
@@ -1726,7 +1839,7 @@
         <v>82102.8</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
@@ -1761,7 +1874,7 @@
         <v>177128321.89999998</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +1909,7 @@
         <v>73927435.850000009</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1944,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1979,7 @@
         <v>167300564.59999999</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +2014,7 @@
         <v>79574599</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +2049,7 @@
         <v>2101526674.2899997</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
@@ -1971,7 +2084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2119,7 @@
         <v>1701747786.5899999</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
@@ -2041,7 +2154,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>61</v>
       </c>
@@ -2076,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
@@ -2111,7 +2224,7 @@
         <v>44708507</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2259,7 @@
         <v>31016298</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
@@ -2181,7 +2294,7 @@
         <v>1445193869.4200001</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
@@ -2216,7 +2329,7 @@
         <v>3453827.07</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
@@ -2251,7 +2364,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
@@ -2286,7 +2399,7 @@
         <v>175095221.02000004</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2434,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
@@ -2356,7 +2469,7 @@
         <v>24644585.07</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>64</v>
       </c>
@@ -2391,7 +2504,7 @@
         <v>490910296.62</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>65</v>
       </c>
@@ -2426,7 +2539,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
@@ -2461,7 +2574,7 @@
         <v>8071850566.8299999</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +2609,7 @@
         <v>795820.17</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
@@ -2531,7 +2644,7 @@
         <v>57880</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2566,7 +2679,7 @@
         <v>5464539</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
@@ -2601,7 +2714,7 @@
         <v>1610405.3</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
@@ -2636,7 +2749,7 @@
         <v>297481913.32999998</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
@@ -2671,7 +2784,7 @@
         <v>188667106.29000002</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
@@ -2706,7 +2819,7 @@
         <v>448538351.92000002</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>41</v>
       </c>
@@ -2741,7 +2854,7 @@
         <v>651649788.60000002</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2889,7 @@
         <v>169004422.37</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2811,7 +2924,7 @@
         <v>5409616364.8999996</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>44</v>
       </c>
@@ -2846,7 +2959,7 @@
         <v>8318234694.9200001</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2881,7 +2994,7 @@
         <v>36329.230000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>46</v>
       </c>
@@ -2916,7 +3029,7 @@
         <v>16142.6</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>67</v>
       </c>
@@ -2951,7 +3064,7 @@
         <v>57100</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>47</v>
       </c>
@@ -2986,7 +3099,7 @@
         <v>3174396565.7199998</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>48</v>
       </c>
@@ -3021,7 +3134,7 @@
         <v>3208969357.6699996</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>49</v>
       </c>
@@ -3056,7 +3169,7 @@
         <v>640812400</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>68</v>
       </c>
@@ -3091,7 +3204,7 @@
         <v>2528298304.8899999</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>50</v>
       </c>
@@ -3126,7 +3239,7 @@
         <v>1853018155.4199998</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>69</v>
       </c>
@@ -3161,7 +3274,7 @@
         <v>1607440015.6500001</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3309,7 @@
         <v>44729860697.37999</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>11</v>
       </c>
@@ -3214,54 +3327,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48910DB4-ACEE-4C0A-B554-E1C53E1CAD6B}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="16.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="K1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="11">
@@ -3288,44 +3411,62 @@
       <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="13">
         <v>1612</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="11">
-        <v>76183454.679999933</v>
+        <v>76182703.479999945</v>
       </c>
       <c r="C3" s="11">
-        <v>56350936.86999999</v>
+        <v>56347733.189999998</v>
       </c>
       <c r="D3" s="11">
-        <v>40616888.360000007</v>
+        <v>40614455.170000002</v>
       </c>
       <c r="E3" s="11">
-        <v>43948257.860000029</v>
+        <v>43945708.460000031</v>
       </c>
       <c r="F3" s="11">
-        <v>16675178.970000003</v>
+        <v>16674216.620000001</v>
       </c>
       <c r="G3" s="11">
-        <v>17363395.820000008</v>
+        <v>13580554.519999996</v>
       </c>
       <c r="H3" s="11">
-        <v>9352569.8500000034</v>
+        <v>9348493.6500000022</v>
       </c>
       <c r="I3" s="11">
-        <v>15513062.669999994</v>
-      </c>
-      <c r="J3" s="17">
-        <v>19231330.110000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+        <v>15460870.999999993</v>
+      </c>
+      <c r="J3" s="13">
+        <v>18502005.190000009</v>
+      </c>
+      <c r="K3" s="11">
+        <v>31747926.180000011</v>
+      </c>
+      <c r="L3" s="11">
+        <v>20466241.729999997</v>
+      </c>
+      <c r="M3" s="11">
+        <v>36258045.390000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
@@ -3352,19 +3493,28 @@
       <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>1478</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="K4" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
         <v>143080.45000000001</v>
       </c>
       <c r="C5" s="11">
-        <v>181756.61</v>
+        <v>177507.31</v>
       </c>
       <c r="D5" s="11">
         <v>181421.29999999996</v>
@@ -3384,12 +3534,21 @@
       <c r="I5" s="11">
         <v>142686.62</v>
       </c>
-      <c r="J5" s="17">
-        <v>150373.54999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="J5" s="13">
+        <v>149917.15</v>
+      </c>
+      <c r="K5" s="11">
+        <v>30403.280000000006</v>
+      </c>
+      <c r="L5" s="11">
+        <v>75</v>
+      </c>
+      <c r="M5" s="11">
+        <v>123.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11">
@@ -3416,1611 +3575,2235 @@
       <c r="I6" s="11">
         <v>100.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>8312.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="K6" s="11">
+        <v>210.5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>8212.2999999999993</v>
+      </c>
+      <c r="M6" s="11">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>2257</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>78.5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>69.5</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>16514.900000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="11">
         <v>5.2</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B10" s="11">
         <v>91298004.679999962</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>46406444.099999994</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>72134487.200000018</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>58230299.219999991</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>60949655.409999989</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>53726053.200000003</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>21432502.23</v>
       </c>
-      <c r="I9" s="11">
-        <v>65359472.649999984</v>
-      </c>
-      <c r="J9" s="17">
-        <v>13004161.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="I10" s="11">
+        <v>64369990.649999984</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2399375.38</v>
+      </c>
+      <c r="K10" s="11">
+        <v>33244060.449999999</v>
+      </c>
+      <c r="L10" s="11">
+        <v>20893205.009999998</v>
+      </c>
+      <c r="M10" s="11">
+        <v>55719461.360000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B11" s="11">
         <v>12240546.91</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>3641893.0600000005</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>4711877.01</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>29020160.43</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>4465096.24</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>4505257.4000000004</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <v>8281100.2700000005</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="11">
         <v>23498514.359999996</v>
       </c>
-      <c r="J10" s="17">
-        <v>10617707.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="J11" s="13">
+        <v>10518017.01</v>
+      </c>
+      <c r="K11" s="11">
+        <v>7444730.6200000001</v>
+      </c>
+      <c r="L11" s="11">
+        <v>24922233.219999995</v>
+      </c>
+      <c r="M11" s="11">
+        <v>9938563.7599999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B12" s="11">
         <v>18626123</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>16281003.5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>23706746.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>17566449</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>18562952</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>18959599</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <v>17087562</v>
       </c>
-      <c r="I11" s="11">
-        <v>20325000</v>
-      </c>
-      <c r="J11" s="17">
-        <v>21000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="I12" s="11">
+        <v>15548581</v>
+      </c>
+      <c r="J12" s="13">
+        <v>19021510</v>
+      </c>
+      <c r="K12" s="11">
+        <v>18802042</v>
+      </c>
+      <c r="L12" s="11">
+        <v>21100101</v>
+      </c>
+      <c r="M12" s="11">
+        <v>22650500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>17409316</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>62451430</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>20469278</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>63654077</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
         <v>16502167</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>20465447</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>71188201.659999996</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="13">
         <v>9056281.3399999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="K13" s="11">
+        <v>63705075</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>61403689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="11">
         <v>46329837.960000001</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>13417625.99</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>26093020.880000003</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>21884684.170000002</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>22987930.089999996</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>30002058.850000001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>40779088.25</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>15728426.810000001</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="13">
         <v>39328838.759999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="K14" s="11">
+        <v>30103034.82</v>
+      </c>
+      <c r="L14" s="11">
+        <v>10355195.74</v>
+      </c>
+      <c r="M14" s="11">
+        <v>43682795.149999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B15" s="11">
         <v>3661017.6</v>
       </c>
-      <c r="C14" s="11">
-        <v>5459015.1200000001</v>
-      </c>
-      <c r="D14" s="11">
-        <v>3611534.82</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5366467.2200000007</v>
-      </c>
-      <c r="F14" s="11">
-        <v>5487189.1400000006</v>
-      </c>
-      <c r="G14" s="11">
-        <v>5052465.3600000003</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="C15" s="11">
+        <v>5431045.1200000001</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3610674.82</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5361697.2200000007</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5478099.1400000006</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5045215.3600000003</v>
+      </c>
+      <c r="H15" s="11">
         <v>6106759.3600000003</v>
       </c>
-      <c r="I14" s="11">
-        <v>6188966.7599999998</v>
-      </c>
-      <c r="J14" s="17">
-        <v>6074699.5200000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="I15" s="11">
+        <v>6177386.7599999998</v>
+      </c>
+      <c r="J15" s="13">
+        <v>6029079.5200000005</v>
+      </c>
+      <c r="K15" s="11">
+        <v>5770784.5699999994</v>
+      </c>
+      <c r="L15" s="11">
+        <v>4021454.48</v>
+      </c>
+      <c r="M15" s="11">
+        <v>4396750.1399999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>27300</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B17" s="11">
         <v>1600</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C17" s="11">
         <v>2400</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
         <v>910</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="11">
         <v>13100</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I17" s="11">
         <v>2662.8</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J17" s="13">
         <v>61430</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="K17" s="11">
+        <v>55900</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B18" s="11">
         <v>44492603.599999994</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <v>16243984.300000001</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <v>33494937</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>20778939</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F18" s="11">
         <v>2703874</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <v>18957531</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <v>4763216</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I18" s="11">
         <v>17262154.600000001</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J18" s="13">
         <v>18431082.399999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="K18" s="11">
+        <v>3138351</v>
+      </c>
+      <c r="L18" s="11">
+        <v>17028440</v>
+      </c>
+      <c r="M18" s="11">
+        <v>19652527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B19" s="11">
         <v>10637870.75</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C19" s="11">
         <v>8123150.1799999997</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D19" s="11">
         <v>7170685.6799999997</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E19" s="11">
         <v>9411201.9199999999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F19" s="11">
         <v>9068775.5</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G19" s="11">
         <v>9814480.6499999985</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H19" s="11">
         <v>5777565.4500000002</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I19" s="11">
         <v>7564863.0199999996</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J19" s="13">
         <v>6358842.7000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="K19" s="11">
+        <v>7752945.3399999999</v>
+      </c>
+      <c r="L19" s="11">
+        <v>8633137.7699999996</v>
+      </c>
+      <c r="M19" s="11">
+        <v>8215629.8399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
         <v>19000</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <v>20395</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B21" s="11">
         <v>27204683.48</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C21" s="11">
         <v>10307987.42</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D21" s="11">
         <v>9523867.4299999997</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E21" s="11">
         <v>16725664.229999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F21" s="11">
         <v>14288119.309999999</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G21" s="11">
         <v>13896626.09</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H21" s="11">
         <v>20148103.449999999</v>
       </c>
-      <c r="I19" s="11">
-        <v>24660039.949999999</v>
-      </c>
-      <c r="J19" s="17">
-        <v>30545473.239999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="I21" s="11">
+        <v>24574439.949999999</v>
+      </c>
+      <c r="J21" s="13">
+        <v>30518814.84</v>
+      </c>
+      <c r="K21" s="11">
+        <v>31216726.27</v>
+      </c>
+      <c r="L21" s="11">
+        <v>30188706.149999999</v>
+      </c>
+      <c r="M21" s="11">
+        <v>28295583.279999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B22" s="11">
         <v>242315</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C22" s="11">
         <v>17777794</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>5263770</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>1254686</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F22" s="11">
         <v>190326</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <v>25044543</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <v>20200970</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I22" s="11">
         <v>7981550</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J22" s="13">
         <v>1618645</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="K22" s="11">
+        <v>952895</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3799696</v>
+      </c>
+      <c r="M22" s="11">
+        <v>3671204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B23" s="11">
         <v>315609684.57999998</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="11">
         <v>212483846.01999998</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <v>223248417.96999997</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E23" s="11">
         <v>105072418.19</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="11">
         <v>237028548.88</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G23" s="11">
         <v>343958810.69000006</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H23" s="11">
         <v>362816075.88999999</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I23" s="11">
         <v>173430243.58999997</v>
       </c>
-      <c r="J21" s="17">
-        <v>127878628.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="J23" s="13">
+        <v>127768670.62</v>
+      </c>
+      <c r="K23" s="11">
+        <v>264447853.64000002</v>
+      </c>
+      <c r="L23" s="11">
+        <v>282385881.10000002</v>
+      </c>
+      <c r="M23" s="11">
+        <v>292082738.26999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>5041.2</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="11">
-        <v>173729980.75999999</v>
-      </c>
-      <c r="C23" s="11">
-        <v>161367757.49999994</v>
-      </c>
-      <c r="D23" s="11">
-        <v>189713737.11999995</v>
-      </c>
-      <c r="E23" s="11">
-        <v>188326141.04000002</v>
-      </c>
-      <c r="F23" s="11">
-        <v>180532957.28999999</v>
-      </c>
-      <c r="G23" s="11">
-        <v>163918821.36999997</v>
-      </c>
-      <c r="H23" s="11">
-        <v>185364268.05999997</v>
-      </c>
-      <c r="I23" s="11">
-        <v>231950954.97000003</v>
-      </c>
-      <c r="J23" s="17">
-        <v>226843168.48000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="B25" s="11">
+        <v>173714600.75999999</v>
+      </c>
+      <c r="C25" s="11">
+        <v>161337997.49999994</v>
+      </c>
+      <c r="D25" s="11">
+        <v>189356627.11999995</v>
+      </c>
+      <c r="E25" s="11">
+        <v>188168795</v>
+      </c>
+      <c r="F25" s="11">
+        <v>180289125.28999999</v>
+      </c>
+      <c r="G25" s="11">
+        <v>163533576.60999998</v>
+      </c>
+      <c r="H25" s="11">
+        <v>185082637.05999997</v>
+      </c>
+      <c r="I25" s="11">
+        <v>231538321.72000003</v>
+      </c>
+      <c r="J25" s="13">
+        <v>226558273.93000001</v>
+      </c>
+      <c r="K25" s="11">
+        <v>216714241.39999998</v>
+      </c>
+      <c r="L25" s="11">
+        <v>213995111.47000006</v>
+      </c>
+      <c r="M25" s="11">
+        <v>216145059.59999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="11">
-        <v>0</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>291180</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
         <v>2</v>
       </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B28" s="11">
         <v>14002208</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C28" s="11">
         <v>12328960</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="11">
         <v>15393681</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E28" s="11">
         <v>2983658</v>
       </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B29" s="11">
         <v>6505595</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
         <v>2640480</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E29" s="11">
         <v>2846887</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F29" s="11">
         <v>3010837.65</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G29" s="11">
         <v>6435214.3499999996</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H29" s="11">
         <v>2738749</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I29" s="11">
         <v>2754835</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J29" s="13">
         <v>4083700</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="K29" s="11">
+        <v>5850675</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1251659</v>
+      </c>
+      <c r="M29" s="11">
+        <v>5874678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B30" s="11">
         <v>148805874</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C30" s="11">
         <v>239529756</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>69647596</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>116196495</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F30" s="11">
         <v>186470384.90000001</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <v>64748020.899999999</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <v>323267282.62</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I30" s="11">
         <v>143156902</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J30" s="13">
         <v>153371558</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="K30" s="11">
+        <v>141320477</v>
+      </c>
+      <c r="L30" s="11">
+        <v>127463608.09999999</v>
+      </c>
+      <c r="M30" s="11">
+        <v>167652127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B31" s="11">
         <v>1108000</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C31" s="11">
         <v>310920</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>352580</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E31" s="11">
         <v>241460</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F31" s="11">
         <v>298540</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G31" s="11">
         <v>473760</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H31" s="11">
         <v>138000</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I31" s="11">
         <v>326940</v>
       </c>
-      <c r="J29" s="17">
-        <v>203627.07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="J31" s="13">
+        <v>180607.07</v>
+      </c>
+      <c r="K31" s="11">
+        <v>183270</v>
+      </c>
+      <c r="L31" s="11">
+        <v>518765.35</v>
+      </c>
+      <c r="M31" s="11">
+        <v>889947.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <v>2000</v>
       </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B33" s="11">
         <v>17801616.850000001</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C33" s="11">
         <v>16789580.48</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <v>19678657.690000001</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>32049496.380000003</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>19726647.84</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G33" s="11">
         <v>16802863.740000002</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H33" s="11">
         <v>17627148.52</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I33" s="11">
         <v>18401013.050000001</v>
       </c>
-      <c r="J31" s="17">
-        <v>16218196.469999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="J33" s="13">
+        <v>16217116.469999999</v>
+      </c>
+      <c r="K33" s="11">
+        <v>18221777.130000003</v>
+      </c>
+      <c r="L33" s="11">
+        <v>28506455.230000004</v>
+      </c>
+      <c r="M33" s="11">
+        <v>22468131.370000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B34" s="11">
         <v>2522</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C34" s="11">
         <v>1355</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>1305</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B35" s="11">
         <v>2096975.02</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C35" s="11">
         <v>1415525.1800000002</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D35" s="11">
         <v>3359294.06</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E35" s="11">
         <v>2719710.27</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F35" s="11">
         <v>2110732.44</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G35" s="11">
         <v>2653788.7999999998</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H35" s="11">
         <v>5241026.1899999995</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I35" s="11">
         <v>2804765.25</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J35" s="13">
         <v>2242767.8600000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="K35" s="11">
+        <v>2597420.59</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2631121.33</v>
+      </c>
+      <c r="M35" s="11">
+        <v>4324888.0500000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>24612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B37" s="11">
         <v>79333977.320000008</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C37" s="11">
         <v>50201145.399999991</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D37" s="11">
         <v>11922013.42</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E37" s="11">
         <v>73210164.75999999</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F37" s="11">
         <v>33774411.390000008</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G37" s="11">
         <v>58617282.509999998</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H37" s="11">
         <v>72167787.230000004</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I37" s="11">
         <v>69813273.450000003</v>
       </c>
-      <c r="J34" s="17">
-        <v>41870241.139999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="J37" s="13">
+        <v>41826630.099999994</v>
+      </c>
+      <c r="K37" s="11">
+        <v>72466114.770000011</v>
+      </c>
+      <c r="L37" s="11">
+        <v>39069614.380000003</v>
+      </c>
+      <c r="M37" s="11">
+        <v>79763357.289999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="11">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
         <v>4140</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B40" s="11">
         <v>1192552289.5799999</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C40" s="11">
         <v>838721069.25</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D40" s="11">
         <v>774267809.13</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E40" s="11">
         <v>1261268201.0699999</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F40" s="11">
         <v>666077819.17000008</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G40" s="11">
         <v>1030368350.58</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H40" s="11">
         <v>960790890.04000008</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I40" s="11">
         <v>668908533.17000008</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J40" s="13">
         <v>678895604.84000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="K40" s="11">
+        <v>641061724.5999999</v>
+      </c>
+      <c r="L40" s="11">
+        <v>648435883.96000004</v>
+      </c>
+      <c r="M40" s="11">
+        <v>716483723.30999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B41" s="11">
         <v>290194.31</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C41" s="11">
         <v>135361.43</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D41" s="11">
         <v>84279.44</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E41" s="11">
         <v>51030.99</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F41" s="11">
         <v>200817</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G41" s="11">
         <v>34039</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H41" s="11">
         <v>98</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>25276.48</v>
+      </c>
+      <c r="M41" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
         <v>57880</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B43" s="11">
         <v>464442</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C43" s="11">
         <v>1140963</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D43" s="11">
         <v>311783</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
         <v>419035</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G43" s="11">
         <v>259723</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H43" s="11">
         <v>519540</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I43" s="11">
         <v>1269888</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J43" s="13">
         <v>1079165</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="K43" s="11">
+        <v>540315.65</v>
+      </c>
+      <c r="L43" s="11">
+        <v>886154.32</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1489813.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B44" s="11">
         <v>161000</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C44" s="11">
         <v>253000</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D44" s="11">
         <v>310915.3</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E44" s="11">
         <v>370000</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F44" s="11">
         <v>312000</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G44" s="11">
         <v>203490</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>128120</v>
+      </c>
+      <c r="L44" s="11">
+        <v>276000</v>
+      </c>
+      <c r="M44" s="11">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B45" s="11">
         <v>10203390</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C45" s="11">
         <v>18856000</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D45" s="11">
         <v>11280100</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E45" s="11">
         <v>27868160</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F45" s="11">
         <v>28137037</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G45" s="11">
         <v>28797783</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H45" s="11">
         <v>48207805</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I45" s="11">
         <v>52408288.329999998</v>
       </c>
-      <c r="J41" s="17">
-        <v>71723350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="J45" s="13">
+        <v>71648350</v>
+      </c>
+      <c r="K45" s="11">
+        <v>22177070</v>
+      </c>
+      <c r="L45" s="11">
+        <v>33272760</v>
+      </c>
+      <c r="M45" s="11">
+        <v>3125030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B46" s="11">
         <v>26516603.669999998</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C46" s="11">
         <v>25699624.700000003</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D46" s="11">
         <v>25206906.07</v>
       </c>
-      <c r="E42" s="11">
-        <v>19712417.870000001</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="E46" s="11">
+        <v>19712047.870000001</v>
+      </c>
+      <c r="F46" s="11">
         <v>20770990.32</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G46" s="11">
         <v>22317764.540000003</v>
       </c>
-      <c r="H42" s="11">
-        <v>13086660.649999999</v>
-      </c>
-      <c r="I42" s="11">
-        <v>16576298.83</v>
-      </c>
-      <c r="J42" s="17">
-        <v>18779839.640000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="H46" s="11">
+        <v>13026730.649999999</v>
+      </c>
+      <c r="I46" s="11">
+        <v>16574818.83</v>
+      </c>
+      <c r="J46" s="13">
+        <v>18667599.640000001</v>
+      </c>
+      <c r="K46" s="11">
+        <v>20781071.490000002</v>
+      </c>
+      <c r="L46" s="11">
+        <v>20078711.940000001</v>
+      </c>
+      <c r="M46" s="11">
+        <v>21157030.689999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B47" s="11">
         <v>41195658.290000007</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C47" s="11">
         <v>27788032.490000002</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D47" s="11">
         <v>29089686.91</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E47" s="11">
         <v>38351918.009999998</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F47" s="11">
         <v>41225732.930000015</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G47" s="11">
         <v>46678150.07</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H47" s="11">
         <v>70001723.670000002</v>
       </c>
-      <c r="I43" s="11">
-        <v>61850223.089999996</v>
-      </c>
-      <c r="J43" s="17">
-        <v>92357226.460000023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="I47" s="11">
+        <v>62839705.089999996</v>
+      </c>
+      <c r="J47" s="13">
+        <v>102962639.36000001</v>
+      </c>
+      <c r="K47" s="11">
+        <v>64839070.039999984</v>
+      </c>
+      <c r="L47" s="11">
+        <v>45156296.189999998</v>
+      </c>
+      <c r="M47" s="11">
+        <v>42297226.199999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B48" s="11">
         <v>61123334.600000001</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C48" s="11">
         <v>99709622</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D48" s="11">
         <v>49545850</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E48" s="11">
         <v>43834663</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F48" s="11">
         <v>45250540</v>
       </c>
-      <c r="G44" s="11">
-        <v>56115650</v>
-      </c>
-      <c r="H44" s="11">
+      <c r="G48" s="11">
+        <v>56114040</v>
+      </c>
+      <c r="H48" s="11">
         <v>68746358</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I48" s="11">
         <v>143457897</v>
       </c>
-      <c r="J44" s="17">
-        <v>83865874</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="J48" s="13">
+        <v>78983994</v>
+      </c>
+      <c r="K48" s="11">
+        <v>99856762</v>
+      </c>
+      <c r="L48" s="11">
+        <v>104661376</v>
+      </c>
+      <c r="M48" s="11">
+        <v>36612270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B49" s="11">
         <v>29290764.5</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C49" s="11">
         <v>45398712.969999999</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D49" s="11">
         <v>17791528.699999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E49" s="11">
         <v>22520219.800000001</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F49" s="11">
         <v>14933417.780000001</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G49" s="11">
         <v>407249.23000000004</v>
       </c>
-      <c r="H45" s="11">
-        <v>9256817.7000000011</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="H49" s="11">
+        <v>373332.27</v>
+      </c>
+      <c r="I49" s="11">
         <v>4788478.5999999996</v>
       </c>
-      <c r="J45" s="17">
-        <v>24617233.09</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="J49" s="13">
+        <v>9826884.5899999999</v>
+      </c>
+      <c r="K49" s="11">
+        <v>33077232.509999998</v>
+      </c>
+      <c r="L49" s="11">
+        <v>56741210</v>
+      </c>
+      <c r="M49" s="11">
+        <v>21473976.899999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B50" s="11">
         <v>636332663.12</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C50" s="11">
         <v>404770166.68000001</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D50" s="11">
         <v>753903416.35000002</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E50" s="11">
         <v>543380971.33000004</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F50" s="11">
         <v>406241391.35000002</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G50" s="11">
         <v>758284640.61000001</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H50" s="11">
         <v>943061008.26999998</v>
       </c>
-      <c r="I46" s="11">
-        <v>437974432.14999998</v>
-      </c>
-      <c r="J46" s="17">
-        <v>525667675.04000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="I50" s="11">
+        <v>437738302.14999998</v>
+      </c>
+      <c r="J50" s="13">
+        <v>525953456.79000002</v>
+      </c>
+      <c r="K50" s="11">
+        <v>584575570.20000005</v>
+      </c>
+      <c r="L50" s="11">
+        <v>180726169.24000001</v>
+      </c>
+      <c r="M50" s="11">
+        <v>472322024.94000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11">
-        <v>936762361.00999963</v>
-      </c>
-      <c r="C47" s="11">
-        <v>903959045.37999976</v>
-      </c>
-      <c r="D47" s="11">
+      <c r="B51" s="11">
+        <v>936762361.00999951</v>
+      </c>
+      <c r="C51" s="11">
+        <v>903936728.37999976</v>
+      </c>
+      <c r="D51" s="11">
         <v>981299662.85000014</v>
       </c>
-      <c r="E47" s="11">
-        <v>946633313.84999979</v>
-      </c>
-      <c r="F47" s="11">
-        <v>835106473.05000007</v>
-      </c>
-      <c r="G47" s="11">
-        <v>811013967.58999979</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1022122491.1999999</v>
-      </c>
-      <c r="I47" s="11">
-        <v>939857277.85000014</v>
-      </c>
-      <c r="J47" s="17">
-        <v>941480102.13999987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="E51" s="11">
+        <v>946633808.84999979</v>
+      </c>
+      <c r="F51" s="11">
+        <v>835109173.05000007</v>
+      </c>
+      <c r="G51" s="11">
+        <v>810948698.55999982</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1022108537.1999999</v>
+      </c>
+      <c r="I51" s="11">
+        <v>939799823.02000022</v>
+      </c>
+      <c r="J51" s="13">
+        <v>884271025.14999998</v>
+      </c>
+      <c r="K51" s="11">
+        <v>955379672.88000023</v>
+      </c>
+      <c r="L51" s="11">
+        <v>862646579.99000025</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1120904947.9700003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B52" s="11">
         <v>36050</v>
       </c>
-      <c r="C48" s="11">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
         <v>279.23</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11">
-        <v>0</v>
-      </c>
-      <c r="C49" s="11">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
         <v>16142.6</v>
       </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>25405.4</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B54" s="11">
         <v>28740</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C54" s="11">
         <v>28360</v>
       </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B55" s="11">
         <v>455906711.51999998</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C55" s="11">
         <v>413395962.96000004</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D55" s="11">
         <v>465955324.01999998</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E55" s="11">
         <v>348323834.46000004</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F55" s="11">
         <v>303514950.06999999</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G55" s="11">
         <v>214025959.73999995</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H55" s="11">
         <v>482401569.5200001</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I55" s="11">
         <v>273048316.29000002</v>
       </c>
-      <c r="J51" s="17">
-        <v>217823937.14000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="J55" s="13">
+        <v>217928232.44</v>
+      </c>
+      <c r="K55" s="11">
+        <v>273320018.81</v>
+      </c>
+      <c r="L55" s="11">
+        <v>202678602.11999995</v>
+      </c>
+      <c r="M55" s="11">
+        <v>426727549.86999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B56" s="15">
         <v>599111009.60000002</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C56" s="15">
         <v>477548995</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D56" s="15">
         <v>396801566</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E56" s="15">
         <v>440002135.87</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F56" s="15">
         <v>91692069</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G56" s="15">
         <v>89625472.900000006</v>
       </c>
-      <c r="H52" s="11">
-        <v>76478580.239999995</v>
-      </c>
-      <c r="I52" s="11">
+      <c r="H56" s="15">
+        <v>76612186.239999995</v>
+      </c>
+      <c r="I56" s="15">
         <v>318937483.06</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J56" s="16">
         <v>718772046</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="K56" s="11">
+        <v>590941111.62</v>
+      </c>
+      <c r="L56" s="11">
+        <v>709419200.14999998</v>
+      </c>
+      <c r="M56" s="11">
+        <v>484257821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B57" s="11">
         <v>92027009</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C57" s="11">
         <v>130190635</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D57" s="11">
         <v>6075456</v>
       </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
         <v>131896800</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G57" s="11">
         <v>54593775</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H57" s="11">
         <v>149448181</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I57" s="11">
         <v>7316844</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J57" s="13">
         <v>69263700</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>69295500</v>
+      </c>
+      <c r="M57" s="11">
+        <v>7485800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B58" s="11">
         <v>348347746.54999995</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C58" s="11">
         <v>234179852.63999993</v>
       </c>
-      <c r="D54" s="11">
-        <v>290446914.26999992</v>
-      </c>
-      <c r="E54" s="11">
+      <c r="D58" s="11">
+        <v>290446799.26999992</v>
+      </c>
+      <c r="E58" s="11">
         <v>224880391.95000005</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F58" s="11">
         <v>217578826</v>
       </c>
-      <c r="G54" s="11">
-        <v>304879521.92999989</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="G58" s="11">
+        <v>304892944.20999992</v>
+      </c>
+      <c r="H58" s="11">
         <v>265305367.65999997</v>
       </c>
-      <c r="I54" s="11">
-        <v>350666544.43999994</v>
-      </c>
-      <c r="J54" s="17">
-        <v>292013139.45000017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="I58" s="11">
+        <v>350670460.43999994</v>
+      </c>
+      <c r="J58" s="13">
+        <v>310177579.41000021</v>
+      </c>
+      <c r="K58" s="11">
+        <v>352972006.23000008</v>
+      </c>
+      <c r="L58" s="11">
+        <v>348811543.99000001</v>
+      </c>
+      <c r="M58" s="11">
+        <v>381339548.84000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B59" s="11">
         <v>301709582.38999999</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C59" s="11">
         <v>101773552.71000001</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D59" s="11">
         <v>229315603.90000001</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E59" s="11">
         <v>163736115.53999999</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F59" s="11">
         <v>286482065.55000001</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G59" s="11">
         <v>200556255.19999999</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H59" s="11">
         <v>254110033.81</v>
       </c>
-      <c r="I55" s="11">
-        <v>155208040</v>
-      </c>
-      <c r="J55" s="17">
-        <v>160126906.31999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="I59" s="11">
+        <v>155182060</v>
+      </c>
+      <c r="J59" s="13">
+        <v>199094906.31999999</v>
+      </c>
+      <c r="K59" s="11">
+        <v>131101521.25</v>
+      </c>
+      <c r="L59" s="11">
+        <v>274411327.67000002</v>
+      </c>
+      <c r="M59" s="11">
+        <v>159629356.69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="22">
-        <v>220645031.19000003</v>
-      </c>
-      <c r="C56" s="22">
-        <v>174020302.73000002</v>
-      </c>
-      <c r="D56" s="22">
-        <v>229372284.69000003</v>
-      </c>
-      <c r="E56" s="22">
-        <v>454474972.92000002</v>
-      </c>
-      <c r="F56" s="22">
-        <v>129723921.91</v>
-      </c>
-      <c r="G56" s="22">
-        <v>78914327.000000015</v>
-      </c>
-      <c r="H56" s="22">
-        <v>98572652.25000006</v>
-      </c>
-      <c r="I56" s="22">
-        <v>96885489.089999989</v>
-      </c>
-      <c r="J56" s="23">
-        <v>124831033.86999999</v>
+      <c r="B60" s="11">
+        <v>217674729.30000004</v>
+      </c>
+      <c r="C60" s="11">
+        <v>161187995.06</v>
+      </c>
+      <c r="D60" s="11">
+        <v>213972302.97</v>
+      </c>
+      <c r="E60" s="11">
+        <v>451302968.53000003</v>
+      </c>
+      <c r="F60" s="11">
+        <v>129711338.78</v>
+      </c>
+      <c r="G60" s="11">
+        <v>44880722.420000009</v>
+      </c>
+      <c r="H60" s="11">
+        <v>64429280.169999972</v>
+      </c>
+      <c r="I60" s="11">
+        <v>96876226.449999988</v>
+      </c>
+      <c r="J60" s="13">
+        <v>124672456.29000001</v>
+      </c>
+      <c r="K60" s="15">
+        <v>153140690.37</v>
+      </c>
+      <c r="L60" s="15">
+        <v>117122037.56</v>
+      </c>
+      <c r="M60" s="15">
+        <v>207444558.91000003</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
